--- a/TestWorkbook.xlsx
+++ b/TestWorkbook.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="19380" windowHeight="6555" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="12885" windowHeight="5550" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="departingData" sheetId="4" r:id="rId4"/>
+    <sheet name="arrivingData" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:M17"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>userName</t>
   </si>
@@ -28,20 +30,44 @@
     <t>mercury</t>
   </si>
   <si>
-    <t>Username</t>
+    <t>mercury2</t>
+  </si>
+  <si>
+    <t>mercury1</t>
+  </si>
+  <si>
+    <t>Acapulco</t>
+  </si>
+  <si>
+    <t>Frankfurt</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Paris</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -64,8 +90,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,10 +425,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,25 +439,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -441,12 +460,112 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestWorkbook.xlsx
+++ b/TestWorkbook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="12885" windowHeight="5550" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="12885" windowHeight="5550"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,18 +14,11 @@
     <sheet name="arrivingData" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M17"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
-  <si>
-    <t>userName</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>mercury</t>
   </si>
@@ -394,31 +387,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -439,18 +415,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -462,7 +438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -470,18 +446,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -501,27 +477,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -542,27 +518,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/TestWorkbook.xlsx
+++ b/TestWorkbook.xlsx
@@ -14,11 +14,12 @@
     <sheet name="arrivingData" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:M17"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>mercury</t>
   </si>
@@ -42,6 +43,12 @@
   </si>
   <si>
     <t>Paris</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>ongoing</t>
   </si>
 </sst>
 </file>
@@ -387,14 +394,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>362</v>
+      </c>
+      <c r="B2">
+        <v>632</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/TestWorkbook.xlsx
+++ b/TestWorkbook.xlsx
@@ -4,22 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="12885" windowHeight="5550"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="12885" windowHeight="3765" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="departingData" sheetId="4" r:id="rId4"/>
+    <sheet name="Searchflightdata" sheetId="4" r:id="rId4"/>
     <sheet name="arrivingData" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M17"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>mercury</t>
   </si>
@@ -49,6 +48,27 @@
   </si>
   <si>
     <t>ongoing</t>
+  </si>
+  <si>
+    <t>city1</t>
+  </si>
+  <si>
+    <t>city2</t>
+  </si>
+  <si>
+    <t>city3</t>
+  </si>
+  <si>
+    <t>city4</t>
+  </si>
+  <si>
+    <t>city5</t>
+  </si>
+  <si>
+    <t>fromcity</t>
+  </si>
+  <si>
+    <t>tocity</t>
   </si>
 </sst>
 </file>
@@ -396,7 +416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -489,38 +509,38 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -530,37 +550,52 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
